--- a/控制信号与指令.xlsx
+++ b/控制信号与指令.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="258">
   <si>
     <t>控制信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来自ALUOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新TLB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>invalid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1012,7 +1004,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>invalid</t>
+    <t>串口2status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;1=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;2=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can't write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特权级或未对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1419,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1471,7 +1515,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F4" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1479,13 +1523,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1493,13 +1537,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1507,13 +1551,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1521,13 +1565,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1535,7 +1579,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1543,13 +1587,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1560,7 +1604,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1571,7 +1615,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1582,13 +1626,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1596,13 +1640,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1613,7 +1657,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1623,8 +1667,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="F17" t="s">
-        <v>29</v>
+      <c r="F17">
+        <v>31</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1635,7 +1679,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1646,13 +1690,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1666,7 +1710,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1680,7 +1724,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1694,7 +1738,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1708,7 +1752,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1722,7 +1766,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1736,7 +1780,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1750,13 +1794,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1767,7 +1811,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1778,7 +1822,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1789,7 +1833,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1800,13 +1844,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1814,13 +1858,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s">
         <v>40</v>
-      </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" t="s">
-        <v>42</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1831,7 +1875,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1842,7 +1886,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1853,7 +1897,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -1864,10 +1908,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -1884,7 +1928,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1898,7 +1942,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1926,7 +1970,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -1940,7 +1984,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1976,13 +2020,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s">
         <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2010,7 +2054,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2024,7 +2068,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2038,7 +2082,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2085,13 +2129,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2105,7 +2149,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2119,7 +2163,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2133,7 +2177,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2147,7 +2191,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -2161,7 +2205,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -2175,7 +2219,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -2200,13 +2244,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2214,7 +2258,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -2222,13 +2266,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2236,7 +2280,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -2244,13 +2288,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
-        <v>71</v>
-      </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -2258,13 +2302,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" t="s">
         <v>70</v>
-      </c>
-      <c r="C71" t="s">
-        <v>73</v>
-      </c>
-      <c r="F71" t="s">
-        <v>72</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -2272,13 +2316,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2295,7 +2339,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -2312,7 +2356,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -2329,7 +2373,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F75" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -2346,7 +2390,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2363,7 +2407,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -2380,7 +2424,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F78" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -2397,7 +2441,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F79" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2414,7 +2458,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F80" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -2431,7 +2475,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -2448,7 +2492,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -2535,13 +2579,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -2555,7 +2599,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F90" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -2569,7 +2613,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F91" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -2583,7 +2627,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -2597,7 +2641,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -2611,7 +2655,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F94" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -2625,7 +2669,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F95" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -2639,7 +2683,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -2653,13 +2697,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -2667,13 +2711,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -2681,13 +2725,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -2695,13 +2739,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" t="s">
+        <v>227</v>
+      </c>
+      <c r="F103" t="s">
         <v>228</v>
-      </c>
-      <c r="C103" t="s">
-        <v>229</v>
-      </c>
-      <c r="F103" t="s">
-        <v>230</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -2723,15 +2767,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2750,1935 +2794,1935 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
         <v>45</v>
       </c>
-      <c r="R2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AA2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="L3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" t="s">
+      <c r="M3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="N3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" t="s">
         <v>110</v>
       </c>
-      <c r="F3" t="s">
+      <c r="P3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" t="s">
         <v>110</v>
       </c>
-      <c r="G3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="R3" t="s">
         <v>111</v>
       </c>
-      <c r="L3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" t="s">
-        <v>110</v>
-      </c>
-      <c r="O3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3" t="s">
-        <v>113</v>
-      </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="U3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P4" t="s">
-        <v>66</v>
-      </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s">
         <v>64</v>
       </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" t="s">
-        <v>66</v>
-      </c>
       <c r="Q5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>78</v>
-      </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" t="s">
-        <v>78</v>
-      </c>
       <c r="Q10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>91</v>
+      </c>
+      <c r="R13" t="s">
         <v>94</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" t="s">
-        <v>78</v>
-      </c>
       <c r="L16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" t="s">
         <v>76</v>
       </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" t="s">
-        <v>78</v>
-      </c>
       <c r="L19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22" t="s">
-        <v>78</v>
-      </c>
       <c r="Q22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P25" t="s">
-        <v>78</v>
-      </c>
       <c r="Q25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="U27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="W28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" t="s">
         <v>64</v>
       </c>
-      <c r="K31" t="s">
-        <v>66</v>
-      </c>
       <c r="L31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" t="s">
         <v>64</v>
       </c>
-      <c r="K34" t="s">
-        <v>66</v>
-      </c>
       <c r="L34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" t="s">
-        <v>64</v>
-      </c>
-      <c r="P43" t="s">
-        <v>78</v>
-      </c>
       <c r="Q43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="s">
         <v>76</v>
       </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-      <c r="P46" t="s">
-        <v>78</v>
-      </c>
       <c r="Q46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="s">
         <v>76</v>
       </c>
-      <c r="C49" t="s">
-        <v>64</v>
-      </c>
-      <c r="P49" t="s">
-        <v>78</v>
-      </c>
       <c r="Q49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Y49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="s">
         <v>76</v>
       </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="P52" t="s">
-        <v>78</v>
-      </c>
       <c r="Q52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R52" t="s">
+        <v>94</v>
+      </c>
+      <c r="S52" t="s">
+        <v>91</v>
+      </c>
+      <c r="T52" t="s">
         <v>96</v>
       </c>
-      <c r="S52" t="s">
-        <v>93</v>
-      </c>
-      <c r="T52" t="s">
-        <v>98</v>
-      </c>
       <c r="Y52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="P55" t="s">
         <v>76</v>
       </c>
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-      <c r="P55" t="s">
-        <v>78</v>
-      </c>
       <c r="Q55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Y55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="s">
         <v>76</v>
       </c>
-      <c r="C58" t="s">
-        <v>64</v>
-      </c>
-      <c r="P58" t="s">
-        <v>78</v>
-      </c>
       <c r="Q58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Y58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
+        <v>62</v>
+      </c>
+      <c r="K67" t="s">
         <v>64</v>
       </c>
-      <c r="K67" t="s">
-        <v>66</v>
-      </c>
       <c r="L67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Z67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" t="s">
+        <v>66</v>
+      </c>
+      <c r="O73" t="s">
+        <v>65</v>
+      </c>
+      <c r="P73" t="s">
         <v>76</v>
       </c>
-      <c r="C73" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" t="s">
-        <v>68</v>
-      </c>
-      <c r="O73" t="s">
-        <v>67</v>
-      </c>
-      <c r="P73" t="s">
-        <v>78</v>
-      </c>
       <c r="Q73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N75" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" t="s">
+        <v>62</v>
+      </c>
+      <c r="O77" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" t="s">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
-        <v>64</v>
-      </c>
-      <c r="D77" t="s">
-        <v>68</v>
-      </c>
-      <c r="I77" t="s">
-        <v>64</v>
-      </c>
-      <c r="O77" t="s">
-        <v>67</v>
-      </c>
-      <c r="P77" t="s">
-        <v>78</v>
-      </c>
       <c r="Q77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" t="s">
+        <v>66</v>
+      </c>
+      <c r="H80" t="s">
         <v>76</v>
       </c>
-      <c r="C80" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" t="s">
-        <v>68</v>
-      </c>
-      <c r="H80" t="s">
-        <v>78</v>
-      </c>
       <c r="O80" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q80" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O81" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" t="s">
         <v>76</v>
       </c>
-      <c r="C84" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" t="s">
-        <v>68</v>
-      </c>
-      <c r="H84" t="s">
-        <v>78</v>
-      </c>
       <c r="O84" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q84" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F85" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" t="s">
+        <v>66</v>
+      </c>
+      <c r="H88" t="s">
         <v>76</v>
       </c>
-      <c r="C88" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88" t="s">
-        <v>68</v>
-      </c>
-      <c r="H88" t="s">
-        <v>78</v>
-      </c>
       <c r="O88" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P88" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I89" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F90" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" t="s">
+        <v>62</v>
+      </c>
+      <c r="K92" t="s">
+        <v>64</v>
+      </c>
+      <c r="L92" t="s">
+        <v>65</v>
+      </c>
+      <c r="P92" t="s">
         <v>76</v>
       </c>
-      <c r="C92" t="s">
-        <v>64</v>
-      </c>
-      <c r="K92" t="s">
-        <v>66</v>
-      </c>
-      <c r="L92" t="s">
-        <v>67</v>
-      </c>
-      <c r="P92" t="s">
-        <v>78</v>
-      </c>
       <c r="Q92" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K95" t="s">
         <v>76</v>
       </c>
-      <c r="C95" t="s">
-        <v>64</v>
-      </c>
-      <c r="K95" t="s">
-        <v>78</v>
-      </c>
       <c r="L95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P95" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q95" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R95" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="K98" t="s">
         <v>76</v>
       </c>
-      <c r="C98" t="s">
-        <v>64</v>
-      </c>
-      <c r="K98" t="s">
-        <v>78</v>
-      </c>
       <c r="L98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N99" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" t="s">
+        <v>62</v>
+      </c>
+      <c r="K101" t="s">
+        <v>64</v>
+      </c>
+      <c r="L101" t="s">
+        <v>65</v>
+      </c>
+      <c r="P101" t="s">
         <v>76</v>
       </c>
-      <c r="C101" t="s">
-        <v>64</v>
-      </c>
-      <c r="K101" t="s">
-        <v>66</v>
-      </c>
-      <c r="L101" t="s">
-        <v>67</v>
-      </c>
-      <c r="P101" t="s">
-        <v>78</v>
-      </c>
       <c r="Q101" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R101" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B104" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" t="s">
+        <v>62</v>
+      </c>
+      <c r="K104" t="s">
+        <v>64</v>
+      </c>
+      <c r="L104" t="s">
+        <v>65</v>
+      </c>
+      <c r="P104" t="s">
         <v>76</v>
       </c>
-      <c r="C104" t="s">
-        <v>64</v>
-      </c>
-      <c r="K104" t="s">
-        <v>66</v>
-      </c>
-      <c r="L104" t="s">
-        <v>67</v>
-      </c>
-      <c r="P104" t="s">
-        <v>78</v>
-      </c>
       <c r="Q104" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R104" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" t="s">
+        <v>62</v>
+      </c>
+      <c r="K107" t="s">
         <v>76</v>
       </c>
-      <c r="C107" t="s">
-        <v>64</v>
-      </c>
-      <c r="K107" t="s">
-        <v>78</v>
-      </c>
       <c r="L107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O107" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" t="s">
+        <v>62</v>
+      </c>
+      <c r="K110" t="s">
+        <v>64</v>
+      </c>
+      <c r="L110" t="s">
+        <v>65</v>
+      </c>
+      <c r="P110" t="s">
         <v>76</v>
       </c>
-      <c r="C110" t="s">
-        <v>64</v>
-      </c>
-      <c r="K110" t="s">
-        <v>66</v>
-      </c>
-      <c r="L110" t="s">
-        <v>67</v>
-      </c>
-      <c r="P110" t="s">
-        <v>78</v>
-      </c>
       <c r="Q110" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R110" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" t="s">
+        <v>62</v>
+      </c>
+      <c r="K113" t="s">
         <v>76</v>
       </c>
-      <c r="C113" t="s">
-        <v>64</v>
-      </c>
-      <c r="K113" t="s">
-        <v>78</v>
-      </c>
       <c r="L113" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O113" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q113" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R113" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B116" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C116" t="s">
+        <v>62</v>
+      </c>
+      <c r="K116" t="s">
         <v>64</v>
       </c>
-      <c r="K116" t="s">
-        <v>66</v>
-      </c>
       <c r="L116" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O116" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P116" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q116" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R116" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
+        <v>62</v>
+      </c>
+      <c r="K119" t="s">
         <v>64</v>
       </c>
-      <c r="K119" t="s">
-        <v>66</v>
-      </c>
       <c r="L119" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P119" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q119" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N120" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K122" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L122" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O122" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q122" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A123" s="2"/>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
+        <v>62</v>
+      </c>
+      <c r="K125" t="s">
         <v>64</v>
       </c>
-      <c r="K125" t="s">
-        <v>66</v>
-      </c>
       <c r="L125" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P125" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q125" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R125" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N126" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B128" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
+        <v>62</v>
+      </c>
+      <c r="K128" t="s">
         <v>64</v>
       </c>
-      <c r="K128" t="s">
-        <v>66</v>
-      </c>
       <c r="L128" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O128" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P128" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q128" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R128" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B131" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C131" t="s">
+        <v>62</v>
+      </c>
+      <c r="K131" t="s">
         <v>64</v>
       </c>
-      <c r="K131" t="s">
-        <v>66</v>
-      </c>
       <c r="L131" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P131" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q131" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R131" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N132" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B140" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C140" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S140" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C141" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B143" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+      <c r="K143" t="s">
         <v>76</v>
       </c>
-      <c r="C143" t="s">
-        <v>158</v>
-      </c>
-      <c r="K143" t="s">
-        <v>78</v>
-      </c>
       <c r="L143" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N144" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B146" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C146" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA146" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AA147" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="149" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E150" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="152" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B152" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" t="s">
+        <v>62</v>
+      </c>
+      <c r="D152" t="s">
+        <v>66</v>
+      </c>
+      <c r="H152" t="s">
+        <v>95</v>
+      </c>
+      <c r="O152" t="s">
+        <v>65</v>
+      </c>
+      <c r="P152" t="s">
         <v>76</v>
       </c>
-      <c r="C152" t="s">
-        <v>64</v>
-      </c>
-      <c r="D152" t="s">
-        <v>68</v>
-      </c>
-      <c r="H152" t="s">
-        <v>97</v>
-      </c>
-      <c r="O152" t="s">
-        <v>67</v>
-      </c>
-      <c r="P152" t="s">
-        <v>78</v>
-      </c>
       <c r="Q152" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R152" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A153" s="2"/>
       <c r="B153" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F153" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K153" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L153" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M153" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O153" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F154" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N154" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4710,161 +4754,161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="F1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
         <v>185</v>
       </c>
-      <c r="B2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" t="s">
-        <v>187</v>
-      </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" t="s">
         <v>191</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>192</v>
-      </c>
-      <c r="F3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" t="s">
         <v>192</v>
-      </c>
-      <c r="F4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" t="s">
         <v>190</v>
       </c>
-      <c r="B5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" t="s">
-        <v>192</v>
-      </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
         <v>205</v>
-      </c>
-      <c r="B10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" t="s">
         <v>235</v>
-      </c>
-      <c r="E15" t="s">
-        <v>237</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -4878,7 +4922,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4892,7 +4936,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -4906,7 +4950,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -4920,7 +4964,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -4934,7 +4978,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -4948,13 +4992,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" t="s">
         <v>242</v>
-      </c>
-      <c r="B22" t="s">
-        <v>243</v>
-      </c>
-      <c r="E22" t="s">
-        <v>244</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -4965,7 +5009,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4976,20 +5020,189 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
         <v>246</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>257</v>
+      </c>
+      <c r="B39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
@@ -5001,5 +5214,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/控制信号与指令.xlsx
+++ b/控制信号与指令.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="260">
   <si>
     <t>控制信号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1057,6 +1057,14 @@
   </si>
   <si>
     <t>clk_step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCWriteCond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1463,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2767,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA154"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3480,6 +3488,9 @@
       <c r="B44" t="s">
         <v>75</v>
       </c>
+      <c r="C44" t="s">
+        <v>259</v>
+      </c>
       <c r="Y44" t="s">
         <v>62</v>
       </c>
@@ -4160,6 +4171,9 @@
       </c>
       <c r="L98" t="s">
         <v>141</v>
+      </c>
+      <c r="O98" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.15">
@@ -4756,8 +4770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/控制信号与指令.xlsx
+++ b/控制信号与指令.xlsx
@@ -1471,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2775,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3067,7 +3067,7 @@
         <v>65</v>
       </c>
       <c r="Y5" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="Z5" t="s">
         <v>62</v>
@@ -3481,7 +3481,7 @@
         <v>91</v>
       </c>
       <c r="Y43" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
@@ -3521,7 +3521,7 @@
         <v>72</v>
       </c>
       <c r="Y46" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
@@ -3562,7 +3562,7 @@
         <v>123</v>
       </c>
       <c r="Y49" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.15">
@@ -3602,7 +3602,7 @@
         <v>96</v>
       </c>
       <c r="Y52" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.15">
@@ -3642,7 +3642,7 @@
         <v>221</v>
       </c>
       <c r="Y55" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.15">
@@ -3682,7 +3682,7 @@
         <v>133</v>
       </c>
       <c r="Y58" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.15">
@@ -4741,11 +4741,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A152:A153"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A73:A74"/>
@@ -4760,6 +4755,11 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A152:A153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/控制信号与指令.xlsx
+++ b/控制信号与指令.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1471,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1798,6 +1798,17 @@
       </c>
       <c r="K25">
         <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -2775,8 +2786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4741,6 +4752,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A152:A153"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A73:A74"/>
@@ -4755,11 +4771,6 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A152:A153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
